--- a/medicine/Psychotrope/Vin_de_garde/Vin_de_garde.xlsx
+++ b/medicine/Psychotrope/Vin_de_garde/Vin_de_garde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un vin de garde est un vin qui peut vieillir plusieurs années en cave en se bonifiant.
 Les vins de garde ne doivent pas se boire trop jeunes et doivent subir une période de maturation de l'ordre de trois à cinq ans.
